--- a/biology/Histoire de la zoologie et de la botanique/Ivan_Löbl/Ivan_Löbl.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ivan_Löbl/Ivan_Löbl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ivan_L%C3%B6bl</t>
+          <t>Ivan_Löbl</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ivan Löbl, né le 20 mai 1937 à Bratislava (alors en Tchécoslovaquie), est un entomologiste spécialiste des coléoptères. Il travaille comme assistant du conservateur de zoologie au Musée régional de Trnava de 1959 à 1962, puis au Musée national slovaque de Bratislava à partir de 1962. En 1968, il obtient un doctorat en sciences naturelles à l'Université de Bratislava et devient chargé de recherche au département d'entomologie du Muséum d'histoire naturelle de Genève. Il est nommé conservateur du même département dès 1992, et devient conservateur honoraire à sa retraite en 1999, mais publie encore par la suite. Il étudie en particulier les Staphylinidae, et notamment les sous-familles des Scaphidiinae et des Pselaphinae. Il a décrit plus de 1 500 taxons (dont plus de 1 400 espèces), et est le dédicataire de plus de 350 autres décrits par plus de 150 spécialistes[1]. Il est l'auteur d'une série d'ouvrages de référence publiée en huit volumes, le Catalogue of Palaearctic Coleoptera, qui répertorie les références primaires informant sur la taxinomie et la distribution de 100 000 espèces de coléoptères du Paléarctique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ivan Löbl, né le 20 mai 1937 à Bratislava (alors en Tchécoslovaquie), est un entomologiste spécialiste des coléoptères. Il travaille comme assistant du conservateur de zoologie au Musée régional de Trnava de 1959 à 1962, puis au Musée national slovaque de Bratislava à partir de 1962. En 1968, il obtient un doctorat en sciences naturelles à l'Université de Bratislava et devient chargé de recherche au département d'entomologie du Muséum d'histoire naturelle de Genève. Il est nommé conservateur du même département dès 1992, et devient conservateur honoraire à sa retraite en 1999, mais publie encore par la suite. Il étudie en particulier les Staphylinidae, et notamment les sous-familles des Scaphidiinae et des Pselaphinae. Il a décrit plus de 1 500 taxons (dont plus de 1 400 espèces), et est le dédicataire de plus de 350 autres décrits par plus de 150 spécialistes. Il est l'auteur d'une série d'ouvrages de référence publiée en huit volumes, le Catalogue of Palaearctic Coleoptera, qui répertorie les références primaires informant sur la taxinomie et la distribution de 100 000 espèces de coléoptères du Paléarctique.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ivan_L%C3%B6bl</t>
+          <t>Ivan_Löbl</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,19 +523,21 @@
           <t>Taxons dédiés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreux taxons sont dédiés à Ivan Löbl, dont une sous-famille :
-Loebliorylinae Ślipiński, 1991[2]
+Loebliorylinae Ślipiński, 1991
 Quatorze genres :
-Claudivania Huggert, 1982, dédiée à Claude Besuchet et Ivan Löbl[3]
-Loeblaltica Scherer, 1989[4]
-Loeblia Dajoz, 1972[5]
+Claudivania Huggert, 1982, dédiée à Claude Besuchet et Ivan Löbl
+Loeblaltica Scherer, 1989
+Loeblia Dajoz, 1972
 Loeblibatrus Yin, 2018
 Loebliella Leleup, 1981
 Loeblietus Endrödi, 1979
 Loebliobythus Leleup, 1986
-Loebliorylon Ślipiński, 1991[2]
+Loebliorylon Ślipiński, 1991
 Loebliozethus Coulon, 1983
 Loebliquasis Dolin, 1997
 Loeblistiba Pace, 1984
@@ -573,10 +587,10 @@
 Batrisiotes loebli Leleup, 1981
 Becvarius loebli Masumoto, 1998
 Belonopelta loebli Baroni Urbani, 1975
-Bembidion inventor Schmidt, 2018[6]
+Bembidion inventor Schmidt, 2018
 Bembidion ivanloebli Neri &amp; Toledano, 2018
 Bembidion loebli Schmidt, 2014
-Bembidion praeceptor Schmidt, 2018[6]
+Bembidion praeceptor Schmidt, 2018
 Besuchetionella loebliana Angelini &amp; Peck, 2000
 Besuchetostes loebli Paulian, 1972
 Bolitobius loebli Schülke, 1993
@@ -589,8 +603,8 @@
 Caenoscelis loebli Johnson &amp; Bowestead, 2003
 Caledonogonus loebli Hlaváč, 2009
 Caledonomorpha loebli Cassola, 1989
-Calocheiridius loebli Beier, 1974[7]
-Camptoscaphiella loebli Baehr in Baehr &amp; Ubick, 2010[8]
+Calocheiridius loebli Beier, 1974
+Camptoscaphiella loebli Baehr in Baehr &amp; Ubick, 2010
 Carabus loebli Schweiger, 1968
 Catops loebli Perreau, 1988
 Cephalocosyusa loebli Pace, 1992
@@ -600,7 +614,7 @@
 Chlaenius loebli Saha &amp; Sen Gupta, 1979
 Chromatoiulus loebli Strasser, 1974
 Chromatoiulus loebli Mauriès, 1983, homonyme du précédent, remplacé par Nepalmatoiulus ivanloebli Enghoff, 1987
-Cissidium loebli Darby, 2020[9]
+Cissidium loebli Darby, 2020
 Clambus loebli Endrödy-Younga, 1986
 Clambus loeblianus Endrödy-Younga, 1974
 Clavicornaltica loebli Scherer, 1974
@@ -687,7 +701,7 @@
 Indonemoura loebli Zwick &amp; Sivec, 1980
 Ischiolepta loebli Roháček &amp; Papp, 1984
 Ischnosoma loebli Kocian, 1997
-Isometrus acanthurus loebli Vachon, 1982[10]
+Isometrus acanthurus loebli Vachon, 1982
 Juliettinus loebli Gomy, 2010
 Kanala loebli Fikáček, 2010
 Kaschmiriosoma loebli Jeekel, 2003
@@ -707,7 +721,7 @@
 Lissonotocoris loebli Heiss, 2014
 Lissopogonus loebli Deuve, 2009
 Livolia loebli Medvedev, 1974
-Loebliorylon ivani Ślipiński, 2003[11]
+Loebliorylon ivani Ślipiński, 2003
 Loeblistiba loebli Pace, 1984
 Lohmannia loebli Mahunka, 1974
 Maculagonum loebli Baehr, 2018
@@ -718,11 +732,11 @@
 Masuria loebli Pace, 1989
 Mecyclothorax loebli Baehr, 2002
 Medon loebli Bordoni, 1980
-Megachernes loebli Schawaller, 1991[12]
+Megachernes loebli Schawaller, 1991
 Megalopinus loebli Puthz, 1990
 Megalopinus loeblianus Puthz, 2012
 Megarthrus ivani Cuccodoro, 2003
-Megarthrus loebli Cuccodoro, 2018[13]
+Megarthrus loebli Cuccodoro, 2018
 Melanotus loebli Platia &amp; Schimmel, 2001
 Mendaxinus loebli Gildenko, 2004
 Meranoplus loebli Schödl, 1998
@@ -748,7 +762,7 @@
 Neoathousius loebli Schimmel &amp; Platia, 1991
 Neobisnius loebli Last, 1989
 Neotrabisus loebli Leleup, 1981
-Nepalicrepis loebli Scherer, 1989[4]
+Nepalicrepis loebli Scherer, 1989
 Nepalota loebliana Pace, 1991
 Newsteadia  loebli Kozár &amp; Konczné Benedicty, 1999
 Nikkostiba loebli Pace, 1984
@@ -860,7 +874,7 @@
 Tachinus loebli Schülke, 2006
 Tachyusa loebli Pasnik, 2006
 Taizonia loebli Döberl, 1991
-Tetrablemma loebli Bourne, 1980[14]
+Tetrablemma loebli Bourne, 1980
 Tmesisternus loebli Weigel, 2018
 Tomoderus loeblianus Uhmann, 1987
 Torneuma loebli Osella, 1986
@@ -894,7 +908,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ivan_L%C3%B6bl</t>
+          <t>Ivan_Löbl</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -912,52 +926,54 @@
           <t>Taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ivan Löbl a décrit plus de 1 400 taxons. Parmi ceux-ci, on compte une sous-tribu :
 Neopachypterina Bouchard, Löbl and Merkl, 2007
 Il est aussi l'auteur ou co-auteur de 58 genres ou sous-genres :
-Afroscaphium Löbl, 1989[15]
-Akarbatrus Löbl, 2009[16]
+Afroscaphium Löbl, 1989
+Akarbatrus Löbl, 2009
 Amphithrixoides Bouchard &amp; Löbl, 2008
 Anogenius Löbl &amp; Leschen, 1994
-Armariolus Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
+Armariolus Kurbatov, Cuccodoro &amp; Löbl, 2007
 Asisia Bezděk, Löbl &amp; Konstantinov, 2010
 Awas Löbl, 1994
-Baceysus Löbl &amp; Kurbatov, 2001[18]
-Baeocera (Amaloceroschema) Löbl, 1967, synonymisé avec Baeocera Erichson, 1845[19]
-Baeoceroides Löbl, 2020[20]
+Baceysus Löbl &amp; Kurbatov, 2001
+Baeocera (Amaloceroschema) Löbl, 1967, synonymisé avec Baeocera Erichson, 1845
+Baeoceroides Löbl, 2020
 Baeoceroxidium Ogawa &amp; Löbl, 2013
 Baeotoxidium Löbl, 1971
 Barnardiorum Iwan &amp; Löbl, 2007
-Batoxylomorpha Löbl &amp; Kurbatov, 2001[18]
+Batoxylomorpha Löbl &amp; Kurbatov, 2001
 Batrictenistes Löbl, 1976
 Bertiscapha Leschen &amp; Löbl, 2005
 Biblomorphus Löbl, 1961
 Birocera Löbl, 1970
 Brachynoposoma Löbl, 1973
 Brunomanseria Löbl &amp; Kurbatov, 2004
-Cataphractinus Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
+Cataphractinus Kurbatov, Cuccodoro &amp; Löbl, 2007
 Cerapeplus Löbl &amp; Burckhardt, 1988
-Coryphomobatrus Löbl &amp; Kurbatov, 2001[18]
+Coryphomobatrus Löbl &amp; Kurbatov, 2001
 Coryphomoides Löbl, 1982
 Eutheimorphus Franz &amp; Löbl, 1990
-Himallaphus Löbl &amp; Kodada, 2021[21]
+Himallaphus Löbl &amp; Kodada, 2021
 Irianscapha Löbl, 2012
-Kasibaeocera Leschen &amp; Löbl, 2005[22]
-Katagenius Burckhardt &amp; Löbl, 1992[23]
+Kasibaeocera Leschen &amp; Löbl, 2005
+Katagenius Burckhardt &amp; Löbl, 1992
 Kathetopodion Löbl, 1982
-Klarissa Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Kryptogenius Burckhardt &amp; Löbl, 1992[23]
-Laenagenius Löbl, 2005[24]
+Klarissa Kurbatov, Cuccodoro &amp; Löbl, 2007
+Kryptogenius Burckhardt &amp; Löbl, 1992
+Laenagenius Löbl, 2005
 Machulkaia Löbl, 1964
 Macroscaphosoma Löbl, 1970
 Megabatrus Löbl, 1979
-Metalloscapha Löbl, 1975[25], synonymisé avec Scaphisoma Leach, 1815[26]
-Multesimus Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
+Metalloscapha Löbl, 1975, synonymisé avec Scaphisoma Leach, 1815
+Multesimus Kurbatov, Cuccodoro &amp; Löbl, 2007
 Neopachypterus Bouchard, Löbl &amp; Merkl, 2007
-Nepallaphus Löbl &amp; Kodada, 2021[21]
-Nippiliphus Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
+Nepallaphus Löbl &amp; Kodada, 2021
+Nippiliphus Kurbatov, Cuccodoro &amp; Löbl, 2007
 Notonewtonia Löbl &amp; Leschen, 2003
 Pedostrangalia (Neosphenalia) Löbl, 2010
 Pleiopleura (Kaszaboscelis) Löbl &amp; Merkl, 2003
@@ -973,10 +989,10 @@
 Termitoscaphium Löbl, 1982
 Tmesiphoromimus Löbl, 1964
 Tritoxidium Leschen &amp; Löbl, 2005
-Tychogenius Burckhardt &amp; Löbl, 1992[23]
-Veddabatrus Löbl &amp; Kurbatov, 2001[18]
+Tychogenius Burckhardt &amp; Löbl, 1992
+Veddabatrus Löbl &amp; Kurbatov, 2001
 Vickibella Leschen &amp; Löbl, 2005
-Xotidium Löbl, 1992[27]
+Xotidium Löbl, 1992
 Zinda Löbl, 1981
 En désignant les espèces types de genres et sous-genres d'insectes décrit après 1930 sans espèce type, Löbl devient également, aux yeux de la nomenclature zoologique, auteur des noms suivants :
 Adesmia (Macradesmia) Löbl &amp; Merkl, 2020
@@ -996,10 +1012,10 @@
 Cheirodes (Spinanemia) Löbl, Bouchard, Merkl &amp; Bousquet, 2020
 Thraustocolus (Leptoderops) Löbl, Bouchard, Merkl &amp; Iwan, 2008
 Enfin, Ivan Löbl est le descripteur ou co-descripteur de très nombreuses espèces et sous-espèces, dont :
-Afroscaphium palpale Löbl, 1989[15]
-Afroscaphium striatulum Löbl, 1989[15]
-Akarbatrus diversicornis Löbl, 2009[16]
-Akarbatrus jelineki Löbl, 2009[16]
+Afroscaphium palpale Löbl, 1989
+Afroscaphium striatulum Löbl, 1989
+Akarbatrus diversicornis Löbl, 2009
+Akarbatrus jelineki Löbl, 2009
 Alexidia carltoni Löbl &amp; Leschen, 2003
 Alexidia dybasi Löbl &amp; Leschen, 2003
 Alexidia plaumanni Löbl &amp; Leschen, 2003
@@ -1007,320 +1023,320 @@
 Amalocera dentifera Löbl, 1974
 Amalocera tibialis Löbl, 1974
 Anogenius clypealis Löbl &amp; Leschen, 1994
-Armariolus aeruscator Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Armariolus bombax Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Armariolus brachiatus Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Armariolus glutto Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Armariolus praepilatus Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Ascaphium alticola Löbl, 1999[28]
-Ascaphium irregulare Löbl, 1999[28]
-Ascaphium ochripes Löbl, 1992[27]
+Armariolus aeruscator Kurbatov, Cuccodoro &amp; Löbl, 2007
+Armariolus bombax Kurbatov, Cuccodoro &amp; Löbl, 2007
+Armariolus brachiatus Kurbatov, Cuccodoro &amp; Löbl, 2007
+Armariolus glutto Kurbatov, Cuccodoro &amp; Löbl, 2007
+Armariolus praepilatus Kurbatov, Cuccodoro &amp; Löbl, 2007
+Ascaphium alticola Löbl, 1999
+Ascaphium irregulare Löbl, 1999
+Ascaphium ochripes Löbl, 1992
 Awas giraffa Löbl, 1994
-Baceysus pretiosus Löbl &amp; Kurbatov, 2001[18]
+Baceysus pretiosus Löbl &amp; Kurbatov, 2001
 Baeocera abrupta Löbl &amp; Leschen, 2003
 Baeocera adusta Löbl, 2018
-Baeocera africana Löbl, 1987[29]
+Baeocera africana Löbl, 1987
 Baeocera agostii Löbl, 2014
 Baeocera alesi Löbl, 2012
 Baeocera aliena Löbl, 2012
 Baeocera alishana Löbl, 2012
-Baeocera alticola Löbl, 2012[30]
+Baeocera alticola Löbl, 2012
 Baeocera amicula Löbl &amp; Stephan, 1993
 Baeocera anchorifera Löbl, 2012
 Baeocera arizonensis Löbl, 2021
-Baeocera badia Löbl, 2015[31]
-Baeocera baliensis Löbl, 2015[31]
-Baeocera barbara Löbl, 1990[32]
-Baeocera barda Löbl, 2015[31]
-Baeocera basalis Löbl, 2015[31]
-Baeocera batukoqensis Löbl, 2015[31]
-Baeocera beata Löbl, 2015[31]
-Baeocera bella Löbl, 2015[31]
-Baeocera bengalensis Löbl, 1984[33]
-Baeocera benolivia Löbl &amp; Leschen, 2003[34]
+Baeocera badia Löbl, 2015
+Baeocera baliensis Löbl, 2015
+Baeocera barbara Löbl, 1990
+Baeocera barda Löbl, 2015
+Baeocera basalis Löbl, 2015
+Baeocera batukoqensis Löbl, 2015
+Baeocera beata Löbl, 2015
+Baeocera bella Löbl, 2015
+Baeocera bengalensis Löbl, 1984
+Baeocera benolivia Löbl &amp; Leschen, 2003
 Baeocera bhutanensis Löbl, 1977, synonymisé avec Baeocera ventralis (Löbl, 1973)
 Baeocera bicolorata Löbl, 1979
-Baeocera bifurcata Löbl, 2015[31]
-Baeocera bifurcilla Löbl, 2015[31]
-Baeocera bona Löbl, 2015[31]
+Baeocera bifurcata Löbl, 2015
+Baeocera bifurcilla Löbl, 2015
+Baeocera bona Löbl, 2015
 Baeocera borealis Löbl &amp; Stephan, 1993
 Baeocera bournei Löbl, 1980
-Baeocera bremeri Löbl, 1990[32]
-Baeocera brevis Löbl, 2015[31]
-Baeocera breviuscula Löbl, 2015[31]
+Baeocera bremeri Löbl, 1990
+Baeocera brevis Löbl, 2015
+Baeocera breviuscula Löbl, 2015
 Baeocera caliginosa Löbl, 1984
 Baeocera callida Löbl, 1986
-Baeocera candalagensis Löbl, 2021[35]
+Baeocera candalagensis Löbl, 2021
 Baeocera cekalovici Löbl, 1983
 Baeocera chisosa Löbl &amp; Stephan, 1993
 Baeocera coalita Löbl, 2003
-Baeocera comes Löbl, 2020[20]
+Baeocera comes Löbl, 2020
 Baeocera compacta Löbl &amp; Stephan, 1993
-Baeocera conferta Löbl, 2020[20]
-Baeocera confinis Löbl, 2020[20]
-Baeocera conformis Löbl, 2020[20]
-Baeocera congrua Löbl, 2020[20]
-Baeocera consobrina Löbl, 2020[20]
-Baeocera consona Löbl, 2020[20]
-Baeocera consors Löbl, 2020[20]
-Baeocera consulta Löbl, 2020[20]
-Baeocera cooteri Löbl, 1999[28]
-Baeocera cribrata Löbl, 1992[27]
-Baeocera crinita Löbl, 1992[27]
+Baeocera conferta Löbl, 2020
+Baeocera confinis Löbl, 2020
+Baeocera conformis Löbl, 2020
+Baeocera congrua Löbl, 2020
+Baeocera consobrina Löbl, 2020
+Baeocera consona Löbl, 2020
+Baeocera consors Löbl, 2020
+Baeocera consulta Löbl, 2020
+Baeocera cooteri Löbl, 1999
+Baeocera cribrata Löbl, 1992
+Baeocera crinita Löbl, 1992
 Baeocera cuccodoroi Löbl, 2002
 Baeocera curta Löbl, 2002
-Baeocera danielae Löbl, 2012[30]
+Baeocera danielae Löbl, 2012
 Baeocera danieli Löbl, 2018
 Baeocera darwini Löbl, 2018
-Baeocera deharvengi Löbl, 1990[32]
+Baeocera deharvengi Löbl, 1990
 Baeocera dentipes Löbl, 1986
 Baeocera derougemonti Löbl, 1983
 Baeocera dilutior Löbl, 1979, nom de remplacement pour Eubaeocera diluta Löbl, 1972 devenu homonyme junior de Baeocera diluta Achard, 1920
 Baeocera dugdalei Löbl, 1981
-Baeocera elenae Löbl &amp; Leschen, 2003[34]
+Baeocera elenae Löbl &amp; Leschen, 2003
 Baeocera elongata Löbl &amp; Stephan, 1993
-Baeocera epipleuralis Löbl &amp; Leschen, 2003[34]
-Baeocera errabunda Löbl, 1992[27]
-Baeocera erroris Löbl, 1990[32]
+Baeocera epipleuralis Löbl &amp; Leschen, 2003
+Baeocera errabunda Löbl, 1992
+Baeocera erroris Löbl, 1990
 Baeocera excelsa Löbl, 1986
 Baeocera flagrans Löbl, 2002
 Baeocera formosana Löbl, 1980
 Baeocera fortepunctata Löbl, 2002
-Baeocera fortis Löbl, 2012[30]
+Baeocera fortis Löbl, 2012
 Baeocera freudei Löbl, 1967
 Baeocera freyi Löbl, 1966
 Baeocera fujiana Löbl, 2018
 Baeocera galapagoensis Löbl, 1977
-Baeocera glabra Löbl, 2021[35]
-Baeocera gnava Löbl, 1980[36]
+Baeocera glabra Löbl, 2021
+Baeocera gnava Löbl, 1980
 Baeocera hamata Löbl &amp; Stephan, 1993
 Baeocera hamifer Löbl, 1977
 Baeocera hammondi Löbl, 1984
 Baeocera hesperia Löbl &amp; Stephan, 1993
-Baeocera hillaryi Löbl &amp; Leschen, 2003[34]
-Baeocera huashana Löbl, 1999[28]
-Baeocera hygrophila Löbl, 1984[33]
-Baeocera hypomeralis Löbl, 2012[30]
-Baeocera ignobilis Löbl, 1980[36]
+Baeocera hillaryi Löbl &amp; Leschen, 2003
+Baeocera huashana Löbl, 1999
+Baeocera hygrophila Löbl, 1984
+Baeocera hypomeralis Löbl, 2012
+Baeocera ignobilis Löbl, 1980
 Baeocera impunctata Löbl &amp; Stephan, 1993
-Baeocera inculta Löbl, 1984[33]
+Baeocera inculta Löbl, 1984
 Baeocera indistincta Löbl &amp; Stephan, 1993
 Baeocera inermis Löbl, 1988
 Baeocera inexspectata Löbl &amp; Stephan, 1993
-Baeocera innocua Löbl, 1990[32]
+Baeocera innocua Löbl, 1990
 Baeocera inoptata Löbl, 2018
-Baeocera insolita Löbl, 1990[32]
-Baeocera jankodadai Löbl, 2012[30]
+Baeocera insolita Löbl, 1990
+Baeocera jankodadai Löbl, 2012
 Baeocera jarmilae Löbl, 2018
-Baeocera jeani Löbl, 2012[30]
-Baeocera jejuna Löbl, 2012[30]
+Baeocera jeani Löbl, 2012
+Baeocera jejuna Löbl, 2012
 Baeocera kaibesara Löbl, 2014
-Baeocera karamea Löbl &amp; Leschen, 2003[34]
-Baeocera karen Löbl, 1990[32]
+Baeocera karamea Löbl &amp; Leschen, 2003
+Baeocera karen Löbl, 1990
 Baeocera karenovicsi Löbl, 2018
 Baeocera keralensis Löbl, 1979
-Baeocera khasiana Löbl, 1984[33]
+Baeocera khasiana Löbl, 1984
 Baeocera kinabalua Löbl, 1987
-Baeocera kubani Löbl, 1999[28]
+Baeocera kubani Löbl, 1999
 Baeocera kurbatovi Löbl, 1993
-Baeocera kuscheli Löbl, 1980[36]
-Baeocera kuscheliana Löbl, 1980[36]
-Baeocera laminula Löbl, 1992[27]
+Baeocera kuscheli Löbl, 1980
+Baeocera kuscheliana Löbl, 1980
+Baeocera laminula Löbl, 1992
 Baeocera lasciva Löbl, 2003
 Baeocera leleupi Löbl, 1989
 Baeocera lenczyi Löbl &amp; Stephan, 1993
 Baeocera lindae Löbl, 2012
-Baeocera louisi Löbl, 2012[30]
-Baeocera manasensis Löbl, 1984[33]
-Baeocera martensi Löbl, 1992[27]
+Baeocera louisi Löbl, 2012
+Baeocera manasensis Löbl, 1984
+Baeocera martensi Löbl, 1992
 Baeocera mendax Löbl, 1979
-Baeocera microps Löbl, 1984[33]
+Baeocera microps Löbl, 1984
 Baeocera microptera Löbl, 1986
-Baeocera mindanaosa Löbl, 2012[30]
-Baeocera monstrosetibialis Löbl, 1984[33]
+Baeocera mindanaosa Löbl, 2012
+Baeocera monstrosetibialis Löbl, 1984
 Baeocera montana Löbl, 1979, homonyme junior de B. montana (Pic, 1955), remplacé par B. montanella Löbl, 1992
 Baeocera montanella Löbl, 1992
 Baeocera mussardi roberti Löbl, 1979, désormais synonyme de Kasibaeocera mussardi (Löbl, 1971)
 Baeocera mussardiana Löbl, 1979
-Baeocera mustangensis Löbl, 1992[27]
+Baeocera mustangensis Löbl, 1992
 Baeocera mutata Löbl, 2012
 Baeocera nanula Löbl, 1980
 Baeocera nonguensis Löbl, 1983
 Baeocera obesa Löbl &amp; Stephan, 1993
 Baeocera obscura Löbl, 2021
-Baeocera omnigena Löbl, 2021[37]
-Baeocera onerosa Löbl, 2021[35]
-Baeocera ovalis Löbl, 1980[36]
+Baeocera omnigena Löbl, 2021
+Baeocera onerosa Löbl, 2021
+Baeocera ovalis Löbl, 1980
 Baeocera ovicula Löbl, 2002
 Baeocera pacifica Löbl, 1981
-Baeocera palmi Löbl, 1987[29]
-Baeocera parallela Löbl, 1980[36]
+Baeocera palmi Löbl, 1987
+Baeocera parallela Löbl, 1980
 Baeocera pecki Löbl &amp; Stephan, 1993
-Baeocera pilifera Löbl, 1984[33]
-Baeocera plana Löbl, 1980[36]
+Baeocera pilifera Löbl, 1984
+Baeocera plana Löbl, 1980
 Baeocera praedicta Löbl, 2002
 Baeocera praesignis Löbl, 2002
-Baeocera problematica Löbl, 1987[29]
-Baeocera procerula Löbl, 2012[30]
+Baeocera problematica Löbl, 1987
+Baeocera procerula Löbl, 2012
 Baeocera proclinata Löbl, 2018
 Baeocera prodroma Löbl, 2002
-Baeocera profana Löbl, 2012[30]
+Baeocera profana Löbl, 2012
 Baeocera prolixa Löbl, 2002
 Baeocera proseminata Löbl, 2003
 Baeocera prospecta Löbl, 2002
 Baeocera provida Löbl, 2002
-Baeocera pseudincisa Löbl, 1984[33]
-Baeocera pseudinculta Löbl, 1990[32]
+Baeocera pseudincisa Löbl, 1984
+Baeocera pseudinculta Löbl, 1990
 Baeocera pseudolenta Löbl, 1979
 Baeocera pseudovilis Löbl, 1986
-Baeocera pubiventris Löbl, 1990[32]
-Baeocera punctatissima Löbl &amp; Leschen, 2003[34]
+Baeocera pubiventris Löbl, 1990
+Baeocera punctatissima Löbl &amp; Leschen, 2003
 Baeocera puncticollis Löbl, 1977
-Baeocera pyricola Löbl, 1990[32]
-Baeocera reducta Löbl, 1980[36]
-Baeocera reducta Löbl, 1992[27], homonyme junior de B. reducta Löbl, 1980, remplacé par B. reductula Löbl, 1997
+Baeocera pyricola Löbl, 1990
+Baeocera reducta Löbl, 1980
+Baeocera reducta Löbl, 1992, homonyme junior de B. reducta Löbl, 1980, remplacé par B. reductula Löbl, 1997
 Baeocera reductula Löbl, 1997
 Baeocera repleta Löbl, 2018
-Baeocera roberti Löbl, 1986[38], homonyme junior de B. mussardi roberti Löbl, 1979, remplacé par B. robertiana Löbl, 1990[32]
-Baeocera robertiana Löbl, 1990[32], nom de remplacement pour Baeocera roberti Löbl, 1986, homonyme junior de B. mussardi roberti Löbl, 1979
-Baeocera rudis Löbl, 2021[37]
+Baeocera roberti Löbl, 1986, homonyme junior de B. mussardi roberti Löbl, 1979, remplacé par B. robertiana Löbl, 1990
+Baeocera robertiana Löbl, 1990, nom de remplacement pour Baeocera roberti Löbl, 1986, homonyme junior de B. mussardi roberti Löbl, 1979
+Baeocera rudis Löbl, 2021
 Baeocera sarawakensis Löbl, 1987
 Baeocera sauteri Löbl, 1980
-Baeocera schawalleri Löbl, 1992[27]
-Baeocera schreyeri Löbl, 1990[32]
-Baeocera schwendingeri Löbl, 1990[32], désormais Baeoceroxidium schwendingeri (Löbl, 1990)
-Baeocera secreta Löbl, 2021[37]
-Baeocera sedata Löbl, 2021[37]
-Baeocera segregata Löbl, 2021[37]
-Baeocera seiugata Löbl, 2021[37]
-Baeocera semirufa Löbl, 2021[37]
-Baeocera senilis Löbl, 1984[33]
-Baeocera signata Löbl, 1984[33]
+Baeocera schawalleri Löbl, 1992
+Baeocera schreyeri Löbl, 1990
+Baeocera schwendingeri Löbl, 1990, désormais Baeoceroxidium schwendingeri (Löbl, 1990)
+Baeocera secreta Löbl, 2021
+Baeocera sedata Löbl, 2021
+Baeocera segregata Löbl, 2021
+Baeocera seiugata Löbl, 2021
+Baeocera semirufa Löbl, 2021
+Baeocera senilis Löbl, 1984
+Baeocera signata Löbl, 1984
 Baeocera similaris Löbl &amp; Stephan, 1993
 Baeocera socotrana Löbl, 2012
 Baeocera solida Löbl &amp; Stephan, 1993
 Baeocera sordida Löbl, 1984
-Baeocera sordidoides Löbl, 1992[27]
+Baeocera sordidoides Löbl, 1992
 Baeocera stewarti Löbl, 2018
 Baeocera sticta Löbl &amp; Stephan, 1993
-Baeocera suthepensis Löbl, 1990[32]
+Baeocera suthepensis Löbl, 1990
 Baeocera takizawai Löbl, 1984
 Baeocera tamil Löbl, 1979
-Baeocera tekootii Löbl &amp; Leschen, 2003[34]
-Baeocera tensingi Löbl &amp; Leschen, 2003[34]
-Baeocera tenuis Löbl &amp; Leschen, 2003[34]
-Baeocera thoracica Löbl, 1992[27]
+Baeocera tekootii Löbl &amp; Leschen, 2003
+Baeocera tensingi Löbl &amp; Leschen, 2003
+Baeocera tenuis Löbl &amp; Leschen, 2003
+Baeocera thoracica Löbl, 1992
 Baeocera tibialis Löbl, 1977
-Baeocera tuberculosa Löbl, 1992[27]
-Baeocera umtalica Löbl, 1987[29]
-Baeocera uncata Löbl, 1990[32]
+Baeocera tuberculosa Löbl, 1992
+Baeocera umtalica Löbl, 1987
+Baeocera uncata Löbl, 1990
 Baeocera vafra Löbl, 2015
-Baeocera vagans Löbl, 1987[29]
+Baeocera vagans Löbl, 1987
 Baeocera valdiviana Löbl, 1983, nom de remplacement pour Toxidium chilense Pic, 1915 evenu homonyme junior de Baeocera chilensis Reitter, 1880
-Baeocera vanuana Löbl, 1980[36]
+Baeocera vanuana Löbl, 1980
 Baeocera variata Löbl, 2015
 Baeocera variicolorata Löbl, 2018
 Baeocera vesiculata Löbl, 1979
 Baeocera vicina Löbl, 2015
-Baeocera vidua Löbl, 1990[32]
-Baeocera vilis Löbl, 1984[33]
+Baeocera vidua Löbl, 1990
+Baeocera vilis Löbl, 1984
 Baeocera villaricensis Löbl, 2018
 Baeocera vintercepta Löbl, 2021
 Baeocera wheeleri Löbl, 1992
 Baeocera wittmeri Löbl, 1977
-Baeocera wolfgangi Löbl, 2012[30]
-Baeocera xichangana Löbl, 1999[28]
+Baeocera wolfgangi Löbl, 2012
+Baeocera xichangana Löbl, 1999
 Baeocera yamdena Löbl, 2014
-Baeocera yunnanensis Löbl, 1999[28]
+Baeocera yunnanensis Löbl, 1999
 Baeoceridium glabrum Löbl, 1979
-Baeoceroides conspectus Löbl, 2020[20]
-Baeoceroides incompletus Löbl, 2020[20]
+Baeoceroides conspectus Löbl, 2020
+Baeoceroides incompletus Löbl, 2020
 Baeoceroxidium pilifera Löbl, 1984
 Baeoceroxidium pyricola Löbl, 1990
 Baeoceroxidium uncata Löbl, 1990
-Baeotoxidium bengalense Löbl, 1984[33], désormais Scaphobaeocera bengalensis (Löbl, 1984)
-Baeotoxidium elegans Löbl, 1971[39], désormais Scaphobaeocera elegans (Löbl, 1971)
-Baeotoxidium gagatum Löbl, 1971[39], désormais Scaphobaeocera gagata (Löbl, 1971)
+Baeotoxidium bengalense Löbl, 1984, désormais Scaphobaeocera bengalensis (Löbl, 1984)
+Baeotoxidium elegans Löbl, 1971, désormais Scaphobaeocera elegans (Löbl, 1971)
+Baeotoxidium gagatum Löbl, 1971, désormais Scaphobaeocera gagata (Löbl, 1971)
 Baeotoxidium indicum Löbl, 1979, désormais Scaphobaeocera indica (Löbl, 1979)
-Baeotoxidium lanka Löbl, 1971[39], désormais Scaphobaeocera lanka (Löbl, 1971)
-Baeotoxidium siamense Löbl, 1990[32], désormais Scaphobaeocera siamensis (Löbl, 1990)
-Baeotoxidium yeti Löbl, 1992[27], désormais Scaphobaeocera yeti (Löbl, 1992)
-Batoxylomorpha femoralis Löbl &amp; Kurbatov, 2001[18]
+Baeotoxidium lanka Löbl, 1971, désormais Scaphobaeocera lanka (Löbl, 1971)
+Baeotoxidium siamense Löbl, 1990, désormais Scaphobaeocera siamensis (Löbl, 1990)
+Baeotoxidium yeti Löbl, 1992, désormais Scaphobaeocera yeti (Löbl, 1992)
+Batoxylomorpha femoralis Löbl &amp; Kurbatov, 2001
 Batraxis taprobana Löbl, 2017
-Batribolbus abas Löbl &amp; Kurbatov, 2001[18]
-Batribolbus aemulus Löbl &amp; Kurbatov, 2001[18]
-Batribolbus carinatus Löbl &amp; Kurbatov, 2001[18]
-Batribolbus furcipes Löbl &amp; Kurbatov, 2001[18]
-Batribolbus gracilipes Löbl &amp; Kurbatov, 2001[18]
-Batribolbus hystrix Löbl &amp; Kurbatov, 2001[18]
-Batribolbus incurvus Löbl &amp; Kurbatov, 2001[18]
-Batribolbus mussardi Löbl &amp; Kurbatov, 2001[18]
-Batribolbus onustus Löbl &amp; Kurbatov, 2001[18]
-Batribolbus pertubator Löbl &amp; Kurbatov, 2001[18]
-Batribolbus punctatus Löbl &amp; Kurbatov, 2001[18]
-Batribolbus trebax Löbl &amp; Kurbatov, 2001[18]
+Batribolbus abas Löbl &amp; Kurbatov, 2001
+Batribolbus aemulus Löbl &amp; Kurbatov, 2001
+Batribolbus carinatus Löbl &amp; Kurbatov, 2001
+Batribolbus furcipes Löbl &amp; Kurbatov, 2001
+Batribolbus gracilipes Löbl &amp; Kurbatov, 2001
+Batribolbus hystrix Löbl &amp; Kurbatov, 2001
+Batribolbus incurvus Löbl &amp; Kurbatov, 2001
+Batribolbus mussardi Löbl &amp; Kurbatov, 2001
+Batribolbus onustus Löbl &amp; Kurbatov, 2001
+Batribolbus pertubator Löbl &amp; Kurbatov, 2001
+Batribolbus punctatus Löbl &amp; Kurbatov, 2001
+Batribolbus trebax Löbl &amp; Kurbatov, 2001
 Batricavus cornutus Yin, Löbl &amp; Li, 2014
 Batrictenistes bicolor Löbl, 1983
 Batrictenistes bryanti Löbl, 1983
 Batrictenistes decorata Löbl, 1976
 Batriplica algon Löbl &amp; Kurbatov, 1996
 Batriscenellus vicarius Löbl, 1973
-Batrisiella aulica Löbl &amp; Kurbatov, 2001[18]
+Batrisiella aulica Löbl &amp; Kurbatov, 2001
 Batrisiella aurita Löbl, 1974
-Batrisiella dryas Löbl &amp; Kurbatov, 2001[18]
-Batrisiella favea Löbl &amp; Kurbatov, 2001[18]
-Batrisiella illicebrosa Löbl &amp; Kurbatov, 2001[18]
+Batrisiella dryas Löbl &amp; Kurbatov, 2001
+Batrisiella favea Löbl &amp; Kurbatov, 2001
+Batrisiella illicebrosa Löbl &amp; Kurbatov, 2001
 Batrisiella orientalis Löbl, 1973, désormais Batriscenellus orientalis (Löbl, 1973)
-Batrisiella retusa Löbl &amp; Kurbatov, 2001[18]
-Batrisiella srilankana Löbl &amp; Kurbatov, 2001[18]
-Batrisiotes mussardi Löbl &amp; Kurbatov, 2001[18]
-Batrisiotes puncticeps Löbl &amp; Kurbatov, 2001[18]
-Batrisiotes pyriformis Löbl &amp; Kurbatov, 2001[18]
+Batrisiella retusa Löbl &amp; Kurbatov, 2001
+Batrisiella srilankana Löbl &amp; Kurbatov, 2001
+Batrisiotes mussardi Löbl &amp; Kurbatov, 2001
+Batrisiotes puncticeps Löbl &amp; Kurbatov, 2001
+Batrisiotes pyriformis Löbl &amp; Kurbatov, 2001
 Batrisodes tichomirovae Löbl, 1973
-Batrisomalus cautus Löbl &amp; Kurbatov, 2001[18]
-Batrisomalus currax Löbl &amp; Kurbatov, 2001[18]
-Batrisomalus foveolatus Löbl &amp; Kurbatov, 2001[18]
-Batrisomalus obtectus Löbl &amp; Kurbatov, 2001[18]
-Batrisomalus pubis Löbl &amp; Kurbatov, 2001[18]
-Batrisomalus tuberculatus Löbl &amp; Kurbatov, 2001[18]
-Batrisoplatus incisivus Löbl &amp; Kurbatov, 2001[18]
-Batrisoplatus occipitalis Löbl &amp; Kurbatov, 2001[18]
+Batrisomalus cautus Löbl &amp; Kurbatov, 2001
+Batrisomalus currax Löbl &amp; Kurbatov, 2001
+Batrisomalus foveolatus Löbl &amp; Kurbatov, 2001
+Batrisomalus obtectus Löbl &amp; Kurbatov, 2001
+Batrisomalus pubis Löbl &amp; Kurbatov, 2001
+Batrisomalus tuberculatus Löbl &amp; Kurbatov, 2001
+Batrisoplatus incisivus Löbl &amp; Kurbatov, 2001
+Batrisoplatus occipitalis Löbl &amp; Kurbatov, 2001
 Batrisoplisus nomurai Löbl, 1998
-Bertiscapha basalis Löbl, 2020[20]
+Bertiscapha basalis Löbl, 2020
 Bertiscapha burlischi Leschen &amp; Löbl, 2005
 Bertiscapha compacta Leschen &amp; Löbl, 2005
-Bertiscapha completa Löbl, 2020[20]
-Bertiscapha nana Löbl, 2020[20]
+Bertiscapha completa Löbl, 2020
+Bertiscapha nana Löbl, 2020
 Bertiscapha striata Leschen &amp; Löbl, 2005
-Bironium albertisi Löbl, 2021[40]
+Bironium albertisi Löbl, 2021
 Birocera basicollis Löbl, 2011
-Bironium bicolor Löbl, 2021[40]
+Bironium bicolor Löbl, 2021
 Birocera derougemonti Löbl, 1983
 Bironium amicale Löbl, 2012
-Bironium bidens Löbl, 1990[32]
+Bironium bidens Löbl, 1990
 Bironium bisulcatum Löbl, 1972
 Bironium borneense Löbl, 1987
 Bironium elegans Löbl, 1977
 Bironium flavapex Löbl, 2015
 Bironium glabrum Löbl, 1989
-Bironium grande Löbl, 2021[40]
-Bironium lobatum Löbl, Leschen &amp; Kodada, 2020[41]
+Bironium grande Löbl, 2021
+Bironium lobatum Löbl, Leschen &amp; Kodada, 2020
 Bironium loksai Löbl, 1989
 Bironium maculatum Löbl, 1989
-Bironium maindai Löbl, 2021[40]
-Bironium nepalense Löbl, 1992[27]
-Bironium ornatum Löbl, 2021[40]
-Bironium punctatum Löbl, 2021[40]
+Bironium maindai Löbl, 2021
+Bironium nepalense Löbl, 1992
+Bironium ornatum Löbl, 2021
+Bironium punctatum Löbl, 2021
 Bironium pustulatum Löbl, 2011
 Bironium quadrimaculatum Löbl, 1979
-Bironium riedeli Löbl, 2021[40]
+Bironium riedeli Löbl, 2021
 Bironium rufescens Löbl, 1972
-Bironium rufulum Löbl, 2021[40]
-Bironium striatum Löbl, 2021[40]
-Bironium sulcatum Löbl, Leschen &amp; Kodada, 2020[41]
-Bironium taurus Löbl, 2021[40]
-Bironium troglophilum Löbl, 1990[32]
-Bironium yunnanum Löbl, Leschen &amp; Kodada, 2020[41]
+Bironium rufulum Löbl, 2021
+Bironium striatum Löbl, 2021
+Bironium sulcatum Löbl, Leschen &amp; Kodada, 2020
+Bironium taurus Löbl, 2021
+Bironium troglophilum Löbl, 1990
+Bironium yunnanum Löbl, Leschen &amp; Kodada, 2020
 Brachygluta afghanistanica Löbl, 1967
 Brachynoposoma major Löbl, 1973
 Brachynoposoma punctatum Löbl, 1973
@@ -1333,56 +1349,56 @@
 Bryaxis auritus Löbl &amp; Kurbatov, 1996
 Bryaxis bellax Löbl &amp; Kurbatov, 1996
 Bryaxis buddha Kurbatov &amp; Löbl, 1995
-Bryaxis bushido Löbl, Kurbatov &amp; Nomura, 1998[42]
+Bryaxis bushido Löbl, Kurbatov &amp; Nomura, 1998
 Bryaxis coelestis Löbl &amp; Kurbatov, 1996
 Bryaxis diversicornis chobautianus Löbl, 1998
 Bryaxis emeicus Kurbatov &amp; Löbl, 1995
 Bryaxis fictor Kurbatov &amp; Löbl, 1998
 Bryaxis hakka Löbl &amp; Kurbatov, 1996
-Bryaxis heian Löbl, Kurbatov &amp; Nomura, 1998[42]
-Bryaxis hisamatsui Löbl, Kurbatov &amp; Nomura, 1998[42]
+Bryaxis heian Löbl, Kurbatov &amp; Nomura, 1998
+Bryaxis hisamatsui Löbl, Kurbatov &amp; Nomura, 1998
 Bryaxis hokkiensis Löbl &amp; Kurbatov, 1996
-Bryaxis hoko Löbl, Kurbatov &amp; Nomura, 1998[42]
+Bryaxis hoko Löbl, Kurbatov &amp; Nomura, 1998
 Bryaxis holciki Löbl, 1964
-Bryaxis iriomotensis Löbl, Kurbatov &amp; Nomura, 1998[42]
-Bryaxis jomon Löbl, Kurbatov &amp; Nomura, 1998[42]
-Bryaxis kamakura Löbl, Kurbatov &amp; Nomura, 1998[42]
-Bryaxis karate Löbl, Kurbatov &amp; Nomura, 1998[42]
-Bryaxis katana Löbl, Kurbatov &amp; Nomura, 1998[42]
+Bryaxis iriomotensis Löbl, Kurbatov &amp; Nomura, 1998
+Bryaxis jomon Löbl, Kurbatov &amp; Nomura, 1998
+Bryaxis kamakura Löbl, Kurbatov &amp; Nomura, 1998
+Bryaxis karate Löbl, Kurbatov &amp; Nomura, 1998
+Bryaxis katana Löbl, Kurbatov &amp; Nomura, 1998
 Bryaxis kimi Kurbatov &amp; Löbl, 1998
-Bryaxis kofun Löbl, Kurbatov &amp; Nomura, 1998[42]
+Bryaxis kofun Löbl, Kurbatov &amp; Nomura, 1998
 Bryaxis kumgangsanensis Löbl, 2000
 Bryaxis mahunkai Löbl, 1975
 Bryaxis mandarinus Löbl &amp; Kurbatov, 1996
-Bryaxis mayumi Löbl, Kurbatov &amp; Nomura, 1998[42]
+Bryaxis mayumi Löbl, Kurbatov &amp; Nomura, 1998
 Bryaxis mendax Kurbatov &amp; Löbl, 1998
 Bryaxis merkli Löbl, 2000
-Bryaxis naginata Löbl, Kurbatov &amp; Nomura, 1998[42]
+Bryaxis naginata Löbl, Kurbatov &amp; Nomura, 1998
 Bryaxis nametkini Kurbatov &amp; Löbl, 1998
 Bryaxis nigritus Löbl, 1998, nom de remplacement pour Bythinus nigripennis Motschulsky, 1845, homonyme junior de Bythinus nigripennis Aubé, 1844
 Bryaxis paiwan Löbl &amp; Kurbatov, 1996
 Bryaxis panda Kurbatov &amp; Löbl, 1995
 Bryaxis pawlowskii Löbl, 1974
-Bryaxis peckorum Löbl, Kurbatov &amp; Nomura, 1998[42]
+Bryaxis peckorum Löbl, Kurbatov &amp; Nomura, 1998
 Bryaxis pingtungensis Löbl &amp; Kurbatov, 1996
 Bryaxis planifer Löbl &amp; Kurbatov, 1996
-Bryaxis platalea Löbl, Kurbatov &amp; Nomura, 1998[42]
+Bryaxis platalea Löbl, Kurbatov &amp; Nomura, 1998
 Bryaxis pletnevi Kurbatov &amp; Löbl, 1998
 Bryaxis raptor Löbl &amp; Kurbatov, 1996
 Bryaxis roubalianus Löbl, 1961
 Bryaxis ruidus Kurbatov &amp; Löbl, 1998
 Bryaxis sacer Kurbatov &amp; Löbl, 1995
 Bryaxis sacrificus Kurbatov &amp; Löbl, 1995
-Bryaxis samurai Löbl, Kurbatov &amp; Nomura, 1998[42]
-Bryaxis sawadai Löbl, Kurbatov &amp; Nomura, 1998[42]
+Bryaxis samurai Löbl, Kurbatov &amp; Nomura, 1998
+Bryaxis sawadai Löbl, Kurbatov &amp; Nomura, 1998
 Bryaxis sichuanus Kurbatov &amp; Löbl, 1995
 Bryaxis smetanai Löbl, 1964
-Bryaxis sumo Löbl, Kurbatov &amp; Nomura, 1998[42]
+Bryaxis sumo Löbl, Kurbatov &amp; Nomura, 1998
 Bryaxis taiwanus Löbl &amp; Kurbatov, 1996
-Bryaxis tanto Löbl, Kurbatov &amp; Nomura, 1998[42]
-Bryaxis taradakensis Löbl, Kurbatov &amp; Nomura, 1998[42]
+Bryaxis tanto Löbl, Kurbatov &amp; Nomura, 1998
+Bryaxis taradakensis Löbl, Kurbatov &amp; Nomura, 1998
 Bryaxis tarokanus Löbl &amp; Kurbatov, 1996
-Bryaxis tetralobus Löbl, Kurbatov &amp; Nomura, 1998[42]
+Bryaxis tetralobus Löbl, Kurbatov &amp; Nomura, 1998
 Bryaxis tienmushanus Kurbatov &amp; Löbl, 1995
 Bryaxis tychobythinoides Löbl &amp; Kurbatov, 1996
 Bryaxis unicus Löbl &amp; Kurbatov, 1996
@@ -1390,7 +1406,7 @@
 Bryaxis valentulus Kurbatov &amp; Löbl, 1998
 Bryaxis validicornis Löbl, 1974
 Bryaxis wolongensis Kurbatov &amp; Löbl, 1995
-Bryaxis yari Löbl, Kurbatov &amp; Nomura, 1998[42]
+Bryaxis yari Löbl, Kurbatov &amp; Nomura, 1998
 Bryaxis yushanensis Löbl &amp; Kurbatov, 1996
 Bythoxenites brevicornis Löbl &amp; Kurbatov, 1996
 Bythoxenites brevipilis Löbl &amp; Kurbatov, 1996
@@ -1403,17 +1419,17 @@
 Caryoscapha americanum Löbl, 1987
 Caryoscapha monticola Löbl, 1987
 Caryoscapha seorsum Löbl, 1965
-Cataphractinus arenarius Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Cataphractinus clibanarius Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Cataphractinus crupellarius Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
+Cataphractinus arenarius Kurbatov, Cuccodoro &amp; Löbl, 2007
+Cataphractinus clibanarius Kurbatov, Cuccodoro &amp; Löbl, 2007
+Cataphractinus crupellarius Kurbatov, Cuccodoro &amp; Löbl, 2007
 Centrotoma szeptyckii Löbl, 1974
 Cerapeplus siamensis Löbl &amp; Burckhardt, 1988
 Cerapeplus sinensis Löbl, 1997
-Colilodion tetramerus Löbl, 1998[43]
-Colilodion wuesti Löbl, 1994[44]
-Coryphomobatrus frater Löbl &amp; Kurbatov, 2001[18]
+Colilodion tetramerus Löbl, 1998
+Colilodion wuesti Löbl, 1994
+Coryphomobatrus frater Löbl &amp; Kurbatov, 2001
 Coryphomoides osellai Löbl, 1982
-Coryphomus adventus Löbl &amp; Kurbatov, 2001[18]
+Coryphomus adventus Löbl &amp; Kurbatov, 2001
 Cratna abdominalis Löbl, 1975
 Cratna foveolata Löbl, 1975
 Cratna pedestris Löbl, 1986
@@ -1424,60 +1440,60 @@
 Cratna similis Löbl, 1975
 Ctenistes mroczkowskii Löbl, 1968
 Cyparium celebense Ogawa &amp; Löbl, 2016
-Cyparium earlyi Löbl &amp; Leschen, 2003[34]
+Cyparium earlyi Löbl &amp; Leschen, 2003
 Cyparium javanum Löbl, 1990
-Cyparium khasianum Löbl, 1984[33]
-Cyparium siamense Löbl, 1990[32]
-Cyparium sichuanum Löbl, 1999[28]
+Cyparium khasianum Löbl, 1984
+Cyparium siamense Löbl, 1990
+Cyparium sichuanum Löbl, 1999
 Cyparium tamil Löbl, 1979
-Cyparium thorpei Löbl &amp; Leschen, 2003[34]
+Cyparium thorpei Löbl &amp; Leschen, 2003
 Dasycerus audax Löbl, 1988
 Dasycerus concolor Löbl &amp; Calame, 1996
 Dasycerus cornutus Löbl, 1977
 Dasycerus fasciatus Löbl, 1977
 Dasycerus monticola Löbl, 1988
 Dasycerus suthepensis Löbl, 1988
-Episcaphium catenatum Löbl, 1999[28]
+Episcaphium catenatum Löbl, 1999
 Episcaphium grande Löbl, 2002
-Episcaphium haematoides Löbl, 1999[28]
-Episcaphium strenuum Löbl, 1999[28]
+Episcaphium haematoides Löbl, 1999
+Episcaphium strenuum Löbl, 1999
 Episcaphium unicolor Löbl, 1992
 Episcaphium watanabei Löbl, 2002
-Eubaeocera bacchusi Löbl, 1975[25], désormais Baeocera bacchusi (Löbl, 1975)
+Eubaeocera bacchusi Löbl, 1975, désormais Baeocera bacchusi (Löbl, 1975)
 Eubaeocera bicolor Löbl, 1972, désormais Baeocera bicolor (Löbl, 1972)
-Eubaeocera biroi Löbl, 1975[25], désormais Baeocera biroi (Löbl, 1975)
+Eubaeocera biroi Löbl, 1975, désormais Baeocera biroi (Löbl, 1975)
 Eubaeocera boettcheri Löbl, 1972, désormais Baeocera boettcheri (Löbl, 1972)
-Eubaeocera brevicornis Löbl, 1971[39], désormais Baeocera brevicornis (Löbl, 1971)
+Eubaeocera brevicornis Löbl, 1971, désormais Baeocera brevicornis (Löbl, 1971)
 Eubaeocera brunnea Löbl, 1972, désormais Baeocera brunnea (Löbl, 1972)
 Eubaeocera carinata Löbl, 1975, désormais Baeocera carinata (Löbl, 1975)
-Eubaeocera ceylonensis Löbl, 1971[39], désormais Baeocera ceylonensis (Löbl, 1971)
+Eubaeocera ceylonensis Löbl, 1971, désormais Baeocera ceylonensis (Löbl, 1971)
 Eubaeocera decipiens Löbl, 1973, désormais Baeocera decipiens (Löbl, 1973)
 Eubaeocera diluta Löbl, 1972, remplacé par Baeocera dilutior Löbl, 1979, car devenu homonyme junior de Baeocera diluta Achard, 1920
-Eubaeocera egena Löbl, 1975[25], désormais Baeocera egena (Löbl, 1975)
+Eubaeocera egena Löbl, 1975, désormais Baeocera egena (Löbl, 1975)
 Eubaeocera franzi Löbl, 1973, désormais Baeocera franzi (Löbl, 1973)
 Eubaeocera frater Löbl, 1969, désormais Baeocera frater (Löbl, 1969)
-Eubaeocera frigida Löbl, 1971[39], désormais Baeocera frigida (Löbl, 1971)
+Eubaeocera frigida Löbl, 1971, désormais Baeocera frigida (Löbl, 1971)
 Eubaeocera gilloghyi Löbl, 1973, désormais Baeocera gilloghyi (Löbl, 1973)
 Eubaeocera incisa Löbl, 1973, désormais Baeocera incisa (Löbl, 1973)
-Eubaeocera insperata Löbl, 1975[25], désormais Baeocera insperata (Löbl, 1975)
-Eubaeocera lenta Löbl, 1971[39], désormais Baeocera lenta (Löbl, 1971)
-Eubaeocera longicornis Löbl, 1971[39], désormais Baeocera longicornis (Löbl, 1971)
+Eubaeocera insperata Löbl, 1975, désormais Baeocera insperata (Löbl, 1975)
+Eubaeocera lenta Löbl, 1971, désormais Baeocera lenta (Löbl, 1971)
+Eubaeocera longicornis Löbl, 1971, désormais Baeocera longicornis (Löbl, 1971)
 Eubaeocera macrops Löbl, 1973, désormais Baeocera macrops (Löbl, 1973)
-Eubaeocera monstrosa Löbl, 1971[39], désormais Baeocera monstrosa (Löbl, 1971)
+Eubaeocera monstrosa Löbl, 1971, désormais Baeocera monstrosa (Löbl, 1971)
 Eubaeocera murphyi Löbl, 1973, désormais Baeocera murphyi (Löbl, 1973)
-Eubaeocera mussardi Löbl, 1971[39], désormais Kasibaeocera mussardi (Löbl, 1971)
+Eubaeocera mussardi Löbl, 1971, désormais Kasibaeocera mussardi (Löbl, 1971)
 Eubaeocera nakanei Löbl, 1968, désormais Baeocera nakanei (Löbl, 1968)
 Eubaeocera nitida Löbl, 1975, désormais Baeocera nitida (Löbl, 1975)
 Eubaeocera nobilis besucheti Löbl, 1969, désormais Baeocera nobilis besucheti (Löbl, 1969)
 Eubaeocera obliqua Löbl, 1973, désormais Baeocera obliqua (Löbl, 1973)
 Eubaeocera ornata Löbl, 1973, désormais Baeocera ornata (Löbl, 1973)
 Eubaeocera palawana Löbl, 1971, désormais Baeocera palawana (Löbl, 1971)
-Eubaeocera papua Löbl, 1975[25], désormais Baeocera papua (Löbl, 1975)
-Eubaeocera paradoxa Löbl, 1971[39], désormais Baeocera paradoxa (Löbl, 1971)
-Eubaeocera pigra Löbl, 1971[39], désormais Baeocera pigra (Löbl, 1971)
-Eubaeocera punctata Löbl, 1975[25], désormais Baeocera punctata (Löbl, 1975)
+Eubaeocera papua Löbl, 1975, désormais Baeocera papua (Löbl, 1975)
+Eubaeocera paradoxa Löbl, 1971, désormais Baeocera paradoxa (Löbl, 1971)
+Eubaeocera pigra Löbl, 1971, désormais Baeocera pigra (Löbl, 1971)
+Eubaeocera punctata Löbl, 1975, désormais Baeocera punctata (Löbl, 1975)
 Eubaeocera rufula Löbl, 1973, désormais Baeocera rufula (Löbl, 1973)
-Eubaeocera serendibensis Löbl, 1971[39], désormais Baeocera serendibensis (Löbl, 1971)
+Eubaeocera serendibensis Löbl, 1971, désormais Baeocera serendibensis (Löbl, 1971)
 Eubaeocera sumatrensis Löbl, 1973, désormais Baeocera sumatrensis (Löbl, 1973)
 Eubaeocera taylori Löbl, 1973, désormais Baeocera taylori (Löbl, 1973)
 Eubaeocera ventralis Löbl, 1973, désormais Baeocera ventralis (Löbl, 1973)
@@ -1485,20 +1501,20 @@
 Euplectus lapponicus Löbl &amp; Mattila, 2010
 Eutheimorphus paradoxus Franz &amp; Löbl, 1990
 Geopselaphus saulcyanus Löbl, 1998
-Himallaphus arko Löbl &amp; Kodada, 2021[21]
-Himallaphus bahan Löbl &amp; Kodada, 2021[21]
-Himallaphus bhaai Löbl &amp; Kodada, 2021[21]
-Himallaphus chehara Löbl &amp; Kodada, 2021[21]
-Himallaphus pahilo Löbl &amp; Kodada, 2021[21]
-Histanocerus brendelli Burckhardt &amp; Löbl, 1992[23]
-Histanocerus cochlearis Burckhardt &amp; Löbl, 1992[23]
-Histanocerus convexus Burckhardt &amp; Löbl, 1992[23]
-Histanocerus deharvengi Burckhardt &amp; Löbl, 1992[23]
-Histanocerus gigas Burckhardt &amp; Löbl, 1992[23]
-Histanocerus hecate Burckhardt &amp; Löbl, 1992[23]
-Histanocerus olexai Burckhardt &amp; Löbl, 1992[23]
-Histanocerus smetanai Burckhardt &amp; Löbl, 1992[23]
-Histanocerus wallacei Burckhardt &amp; Löbl, 1992[23]
+Himallaphus arko Löbl &amp; Kodada, 2021
+Himallaphus bahan Löbl &amp; Kodada, 2021
+Himallaphus bhaai Löbl &amp; Kodada, 2021
+Himallaphus chehara Löbl &amp; Kodada, 2021
+Himallaphus pahilo Löbl &amp; Kodada, 2021
+Histanocerus brendelli Burckhardt &amp; Löbl, 1992
+Histanocerus cochlearis Burckhardt &amp; Löbl, 1992
+Histanocerus convexus Burckhardt &amp; Löbl, 1992
+Histanocerus deharvengi Burckhardt &amp; Löbl, 1992
+Histanocerus gigas Burckhardt &amp; Löbl, 1992
+Histanocerus hecate Burckhardt &amp; Löbl, 1992
+Histanocerus olexai Burckhardt &amp; Löbl, 1992
+Histanocerus smetanai Burckhardt &amp; Löbl, 1992
+Histanocerus wallacei Burckhardt &amp; Löbl, 1992
 Hydroscapha coomani Löbl, 1994
 Hydroscapha jaechi Löbl, 1994
 Hydroscapha monticola Löbl, 1994
@@ -1506,164 +1522,200 @@
 Hydroscapha reichardti Löbl, 1994
 Hydroscapha satoi Löbl, 1994
 Irianscapha dimorpha Löbl, 2012
-Katagenius tamil Burckhardt &amp; Löbl, 1992[23]
+Katagenius tamil Burckhardt &amp; Löbl, 1992
 Kathetopodium kiunganum Leschen &amp; Löbl, 2005
-Klarissa pantagatha Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Kryptogenius acericornis Burckhardt &amp; Löbl, 1992[23]
-Kryptogenius bidentatus Burckhardt &amp; Löbl, 1992[23]
-Kryptogenius crassilobus Burckhardt &amp; Löbl, 1992[23]
-Kryptogenius longilobus Burckhardt &amp; Löbl, 1992[23]
-Kryptogenius monilicornis Burckhardt &amp; Löbl, 1992[23]
+Klarissa pantagatha Kurbatov, Cuccodoro &amp; Löbl, 2007
+Kryptogenius acericornis Burckhardt &amp; Löbl, 1992
+Kryptogenius bidentatus Burckhardt &amp; Löbl, 1992
+Kryptogenius crassilobus Burckhardt &amp; Löbl, 1992
+Kryptogenius longilobus Burckhardt &amp; Löbl, 1992
+Kryptogenius monilicornis Burckhardt &amp; Löbl, 1992
 Laena confusa Löbl &amp; Schawaller, 2008
-Laenagenius apterus Löbl, 2005[24]
+Laenagenius apterus Löbl, 2005
 Lasinus chinensis Löbl, 1964
 Leptoplectus vagans Löbl, 1975
 Machulkaia mirabilis Löbl, 1964
 Macroscaphosoma collarti Löbl, 1970
 Macroscaphosoma feai Löbl, 1970
-Maya bracata Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Maya churgellae Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Maya foveolata Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Maya horricomis Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
+Maya bracata Kurbatov, Cuccodoro &amp; Löbl, 2007
+Maya churgellae Kurbatov, Cuccodoro &amp; Löbl, 2007
+Maya foveolata Kurbatov, Cuccodoro &amp; Löbl, 2007
+Maya horricomis Kurbatov, Cuccodoro &amp; Löbl, 2007
 Megabatrus caviceps Löbl, 1979
 Megarthrus ashei Cuccodoro &amp; Löbl, 1996
-Megarthrus bantu Cuccodoro &amp; Löbl, 1995[45]
+Megarthrus bantu Cuccodoro &amp; Löbl, 1995
 Megarthrus borealis Cuccodoro &amp; Löbl, 1996
-Megarthrus clarkei Cuccodoro &amp; Löbl, 1995[45]
-Megarthrus dominicae Cuccodoro &amp; Löbl, 1995[45]
-Megarthrus falasha Cuccodoro &amp; Löbl, 1995[45]
-Megarthrus horticola Cuccodoro &amp; Löbl, 1995[45]
-Megarthrus hutu Cuccodoro &amp; Löbl, 1995[45]
-Megarthrus magnicaudatus Cuccodoro &amp; Löbl, 1995[45]
-Megarthrus mahnerti Cuccodoro &amp; Löbl, 1995[45]
-Megarthrus major Cuccodoro &amp; Löbl, 1995[45]
-Megarthrus maniwaata Cuccodoro &amp; Löbl, 1995[45]
-Megarthrus merabet Cuccodoro &amp; Löbl, 1995[45]
-Megarthrus mukankundiyeorum Cuccodoro &amp; Löbl, 1995[45]
-Megarthrus mwami Cuccodoro &amp; Löbl, 1995[45]
-Megarthrus nanus Cuccodoro &amp; Löbl, 1995[45]
-Megarthrus negus Cuccodoro &amp; Löbl, 1995[45]
+Megarthrus clarkei Cuccodoro &amp; Löbl, 1995
+Megarthrus dominicae Cuccodoro &amp; Löbl, 1995
+Megarthrus falasha Cuccodoro &amp; Löbl, 1995
+Megarthrus horticola Cuccodoro &amp; Löbl, 1995
+Megarthrus hutu Cuccodoro &amp; Löbl, 1995
+Megarthrus magnicaudatus Cuccodoro &amp; Löbl, 1995
+Megarthrus mahnerti Cuccodoro &amp; Löbl, 1995
+Megarthrus major Cuccodoro &amp; Löbl, 1995
+Megarthrus maniwaata Cuccodoro &amp; Löbl, 1995
+Megarthrus merabet Cuccodoro &amp; Löbl, 1995
+Megarthrus mukankundiyeorum Cuccodoro &amp; Löbl, 1995
+Megarthrus mwami Cuccodoro &amp; Löbl, 1995
+Megarthrus nanus Cuccodoro &amp; Löbl, 1995
+Megarthrus negus Cuccodoro &amp; Löbl, 1995
 Megarthrus newtoni Cuccodoro &amp; Löbl, 1996
-Megarthrus niloticus Cuccodoro &amp; Löbl, 1995[45]
+Megarthrus niloticus Cuccodoro &amp; Löbl, 1995
 Megarthrus occidentalis Cuccodoro &amp; Löbl, 1996
-Megarthrus panga Cuccodoro &amp; Löbl, 1995[45]
+Megarthrus panga Cuccodoro &amp; Löbl, 1995
 Megarthrus pecki Cuccodoro &amp; Löbl, 1996
-Megarthrus ras Cuccodoro &amp; Löbl, 1995[45]
-Megarthrus rougemonti Cuccodoro &amp; Löbl, 1995[45]
-Megarthrus scotti Cuccodoro &amp; Löbl, 1995[45]
-Megarthrus selenitus Cuccodoro &amp; Löbl, 1995[45]
+Megarthrus ras Cuccodoro &amp; Löbl, 1995
+Megarthrus rougemonti Cuccodoro &amp; Löbl, 1995
+Megarthrus scotti Cuccodoro &amp; Löbl, 1995
+Megarthrus selenitus Cuccodoro &amp; Löbl, 1995
 Megarthrus smetanai Cuccodoro &amp; Löbl, 1996
-Megarthrus spinosus Cuccodoro &amp; Löbl, 1995[45]
-Megarthrus stylifer Cuccodoro &amp; Löbl, 1995[45]
-Megarthrus twa Cuccodoro &amp; Löbl, 1995[45]
+Megarthrus spinosus Cuccodoro &amp; Löbl, 1995
+Megarthrus stylifer Cuccodoro &amp; Löbl, 1995
+Megarthrus twa Cuccodoro &amp; Löbl, 1995
 Megarthrus uhligi Cuccodoro &amp; Löbl, 1997
-Megarthrus vanschuytbroecki Cuccodoro &amp; Löbl, 1995[45]
-Megarthrus watutsi Cuccodoro &amp; Löbl, 1995[45]
+Megarthrus vanschuytbroecki Cuccodoro &amp; Löbl, 1995
+Megarthrus watutsi Cuccodoro &amp; Löbl, 1995
 Megarthrus wollastoni Cuccodoro &amp; Löbl, 1997
 Megarthrus zekorum Cuccodoro &amp; Löbl, 1997
 Megarthrus zerchei Cuccodoro &amp; Löbl, 1997
-Megarthrus zulu Cuccodoro &amp; Löbl, 1995[45]
-Metalloscapha papua Löbl, 1975[25], désormais Scaphisoma papuum (Löbl, 1975)
+Megarthrus zulu Cuccodoro &amp; Löbl, 1995
+Metalloscapha papua Löbl, 1975, désormais Scaphisoma papuum (Löbl, 1975)
 Microsporus alticola Löbl, 1995
 Microsporus gustavlohsei Löbl, 1995
 Microsporus humicola Löbl, 1995
 Microsporus silvicola Löbl, 1995
-Mina angusticeps Löbl, 1973[46], désormais Mnia angusticeps (Löbl, 1973)
-Mina antennalis Löbl, 1973[46], désormais Mnia antennalis (Löbl, 1973)
-Mina bella Löbl, 1973[46], désormais Mnia bella (Löbl, 1973)
-Mina brevicornis Löbl, 1973[46], désormais Mnia brevicornis (Löbl, 1973)
-Mina brevipilis Löbl, 1973[46], désormais Mnia brevipilis (Löbl, 1973)
-Mina browni Löbl, 1973[46], désormais Mnia browni (Löbl, 1973)
-Mina bryanti Löbl, 1973[46], désormais Mnia bryanti (Löbl, 1973)
-Mina dux Löbl, 1973[46], désormais Mnia dux (Löbl, 1973)
-Mina eucera Löbl, 1973[46], désormais Mnia eucera (Löbl, 1973)
-Mina fallax Löbl, 1973[46], désormais Mnia fallax (Löbl, 1973)
-Mina fossulata Löbl, 1973[46], désormais Mnia fossulata (Löbl, 1973)
-Mina franzi Löbl, 1973[46], désormais Mnia franzi (Löbl, 1973)
-Mina frontalis Löbl, 1973[46], désormais Mnia frontalis (Löbl, 1973)
-Mina gracilis Löbl, 1973[46], désormais Mnia gracilis (Löbl, 1973)
-Mina macrops Löbl, 1973[46], désormais Mnia macrops (Löbl, 1973)
-Mina murphyi Löbl, 1973[46], désormais Mnia murphyi (Löbl, 1973)
-Mina mussardi Löbl, 1973[46], désormais Mnia mussardi (Löbl, 1973)
-Mina mutator Löbl, 1973[46], désormais Mnia mutator (Löbl, 1973)
-Mina puncticeps Löbl, 1973[46], désormais Mnia puncticeps (Löbl, 1973)
-Mina simulans Löbl, 1973[46], désormais Mnia simulans (Löbl, 1973)
-Mina soror Löbl, 1973[46], désormais Mnia soror (Löbl, 1973)
-Mina sulcicollis Löbl, 1973[46], désormais Mnia sulcicollis (Löbl, 1973)
-Mina taylori Löbl, 1973[46], désormais Mnia taylori (Löbl, 1973)
-Mina tuberculata Löbl, 1973[46], désormais Mnia tuberculata (Löbl, 1973)
-Mina variabilis Löbl, 1973[46], désormais Mnia variabilis (Löbl, 1973)
-Mina varians Löbl, 1973[46], désormais Mnia varians (Löbl, 1973)
-Mina velaris Löbl, 1973[46], désormais Mnia velaris (Löbl, 1973)
-Morana afflictrix Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana agostii Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana ampullaria Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana asema Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana belajevae Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana bellicosa Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana bidentata Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana brinevi Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana burckhardti Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana caudata Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana clypeata Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana crustosa Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana derosa Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana diatretaria Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana distensiceps Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana dorsuosa Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana epastifrons Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana eromenion Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana fastigata Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana femoralis Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana galeata Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana hastulata Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana histanoceroides Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana hoplomacha Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana loquax Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana lucipeta Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana lupula Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana lusciosa Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana machaerifera Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana mahadewa Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana minax Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana murphyi Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana nana Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana obbatifrons Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana oxymoron Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana palaung Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana palpalis Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana palulifrons Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana papulifera Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana pectinicornis Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana perreaui Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana persolla Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana petulca Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana platypes Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana rebellis Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana repandirostra Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana sagax Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana scapus Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana schwendingeri Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana semifacta Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana sima Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana sinciput Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana smetanai Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana sycosifrons Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana tibialis Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana virago Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Morana vultuosa Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Multesimus cuniculus Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Multesimus gallulus Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Multesimus jaccoudi Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
-Multesimus talpula Kurbatov, Cuccodoro &amp; Löbl, 2007[17]
+Mina angusticeps Löbl, 1973, désormais Mnia angusticeps (Löbl, 1973)
+Mina antennalis Löbl, 1973, désormais Mnia antennalis (Löbl, 1973)
+Mina bella Löbl, 1973, désormais Mnia bella (Löbl, 1973)
+Mina brevicornis Löbl, 1973, désormais Mnia brevicornis (Löbl, 1973)
+Mina brevipilis Löbl, 1973, désormais Mnia brevipilis (Löbl, 1973)
+Mina browni Löbl, 1973, désormais Mnia browni (Löbl, 1973)
+Mina bryanti Löbl, 1973, désormais Mnia bryanti (Löbl, 1973)
+Mina dux Löbl, 1973, désormais Mnia dux (Löbl, 1973)
+Mina eucera Löbl, 1973, désormais Mnia eucera (Löbl, 1973)
+Mina fallax Löbl, 1973, désormais Mnia fallax (Löbl, 1973)
+Mina fossulata Löbl, 1973, désormais Mnia fossulata (Löbl, 1973)
+Mina franzi Löbl, 1973, désormais Mnia franzi (Löbl, 1973)
+Mina frontalis Löbl, 1973, désormais Mnia frontalis (Löbl, 1973)
+Mina gracilis Löbl, 1973, désormais Mnia gracilis (Löbl, 1973)
+Mina macrops Löbl, 1973, désormais Mnia macrops (Löbl, 1973)
+Mina murphyi Löbl, 1973, désormais Mnia murphyi (Löbl, 1973)
+Mina mussardi Löbl, 1973, désormais Mnia mussardi (Löbl, 1973)
+Mina mutator Löbl, 1973, désormais Mnia mutator (Löbl, 1973)
+Mina puncticeps Löbl, 1973, désormais Mnia puncticeps (Löbl, 1973)
+Mina simulans Löbl, 1973, désormais Mnia simulans (Löbl, 1973)
+Mina soror Löbl, 1973, désormais Mnia soror (Löbl, 1973)
+Mina sulcicollis Löbl, 1973, désormais Mnia sulcicollis (Löbl, 1973)
+Mina taylori Löbl, 1973, désormais Mnia taylori (Löbl, 1973)
+Mina tuberculata Löbl, 1973, désormais Mnia tuberculata (Löbl, 1973)
+Mina variabilis Löbl, 1973, désormais Mnia variabilis (Löbl, 1973)
+Mina varians Löbl, 1973, désormais Mnia varians (Löbl, 1973)
+Mina velaris Löbl, 1973, désormais Mnia velaris (Löbl, 1973)
+Morana afflictrix Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana agostii Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana ampullaria Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana asema Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana belajevae Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana bellicosa Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana bidentata Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana brinevi Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana burckhardti Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana caudata Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana clypeata Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana crustosa Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana derosa Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana diatretaria Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana distensiceps Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana dorsuosa Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana epastifrons Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana eromenion Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana fastigata Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana femoralis Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana galeata Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana hastulata Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana histanoceroides Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana hoplomacha Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana loquax Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana lucipeta Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana lupula Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana lusciosa Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana machaerifera Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana mahadewa Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana minax Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana murphyi Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana nana Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana obbatifrons Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana oxymoron Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana palaung Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana palpalis Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana palulifrons Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana papulifera Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana pectinicornis Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana perreaui Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana persolla Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana petulca Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana platypes Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana rebellis Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana repandirostra Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana sagax Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana scapus Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana schwendingeri Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana semifacta Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana sima Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana sinciput Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana smetanai Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana sycosifrons Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana tibialis Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana virago Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana vultuosa Kurbatov, Cuccodoro &amp; Löbl, 2007
+Multesimus cuniculus Kurbatov, Cuccodoro &amp; Löbl, 2007
+Multesimus gallulus Kurbatov, Cuccodoro &amp; Löbl, 2007
+Multesimus jaccoudi Kurbatov, Cuccodoro &amp; Löbl, 2007
+Multesimus talpula Kurbatov, Cuccodoro &amp; Löbl, 2007
 Mysthrix kistneri Löbl, 1979
-Nabepselaphus nepalensis Löbl &amp; Kodada, 2021[21]
-Nepallaphus ekam Löbl &amp; Kodada, 2021[21]
-Nepallaphus dve Löbl &amp; Kodada, 2021[21]
-Nepallaphus treeni Löbl &amp; Kodada, 2021[21]
-Nesiotomina appendiculata Löbl &amp; Kurbatov, 2001[18]
-Nesiotomina bellax Löbl &amp; Kurbatov, 2001[18]
-Nesiotomina carinifrons Löbl &amp; Kurbatov, 2001</t>
+Nabepselaphus nepalensis Löbl &amp; Kodada, 2021
+Nepallaphus ekam Löbl &amp; Kodada, 2021
+Nepallaphus dve Löbl &amp; Kodada, 2021
+Nepallaphus treeni Löbl &amp; Kodada, 2021
+Nesiotomina appendiculata Löbl &amp; Kurbatov, 2001
+Nesiotomina bellax Löbl &amp; Kurbatov, 2001
+Nesiotomina carinifrons Löbl &amp; Kurbatov, 2001
+Nesiotomina difficilis Löbl &amp; Kurbatov, 2001
+Nesiotomina femoralis Löbl &amp; Kurbatov, 2001
+Nesiotomina foveifrons Löbl &amp; Kurbatov, 2001
+Nesiotomina perbrincki Löbl &amp; Kurbatov, 2001
+Nesiotomina tibialis Löbl &amp; Kurbatov, 2001
+Nesiotomina transjugata Löbl &amp; Kurbatov, 2001
+Nesoscapha gomyi Löbl, 1977
+Nesotoxidium minutissimum Löbl, 1969
+Nippiliphus crurifragius Kurbatov, Cuccodoro &amp; Löbl, 2007
+Nippiliphus napolovi Kurbatov, Cuccodoro &amp; Löbl, 2007
+Nipponobythus besucheti Löbl, 1965
+Nipponobythus caviceps Löbl, 1965
+Nipponobythus dispar Löbl, 1965
+Nipponobythus expectatus Löbl, 1965
+Nipponobythus grandis Löbl, 1965
+Nipponobythus korbeli Löbl, 1965
+Nipponobythus longicornis Löbl, 1965
+Nipponobythus omissus Löbl, 1965
+Notonewtonia thayerae Löbl &amp; Leschen, 2003
+Notonewtonia watti Löbl &amp; Leschen, 2003
+Oberea holatripennoides Löbl &amp; Smetana, 2010, nom de remplacement pour Oberea holatripennis Breuning, 1982, homonyme junior de Oberea holatripennis Breuning,  1860
+Odontalgus coreanus Löbl, 1973
+Pachacuti chandleri Löbl, 2000
+Paracyathiger matousheki Löbl, 1964
+Penthicus pinguis medvedevi Iwan &amp; Löbl, 2007
+Persescaphium pari Löbl &amp; Ogawa, 2016
+Physomerinus akanensis Löbl, 1973
+Pimelia anomaloides Löbl, Bouchard &amp; Merkl, 2008, nom de remplacement pour Pimelia anomala Sénac, 1880, homonyme junior de Pimelia anomala Solier, 1836
+Plagiophorus cabindai Burckhardt &amp; Löbl, 2002
+Pselaphaulax eklai Löbl &amp; Kodada, 2021
+Pselaphaulax sherpa Löbl &amp; Kodada, 2021
+Pselaphogenius baliyo Löbl &amp; Kodada, 2021
+Pselaphogenius bulgaricus Löbl, 1969
+Pselaphogenius crassiusculus Löbl, 1964
+Pselaphus striatus Löbl, 1974
+Pseudobironi</t>
         </is>
       </c>
     </row>
@@ -1673,7 +1725,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ivan_L%C3%B6bl</t>
+          <t>Ivan_Löbl</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1692,6 +1744,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
